--- a/2015-2016/PRE_PRO/pasantes/datos_pasantes/2015/diana/2015/junio/SEGUIMIENTO Y CONTRO DE PRACTICAS Y PASANTIAS_29_junio_03_julio.xlsx
+++ b/2015-2016/PRE_PRO/pasantes/datos_pasantes/2015/diana/2015/junio/SEGUIMIENTO Y CONTRO DE PRACTICAS Y PASANTIAS_29_junio_03_julio.xlsx
@@ -145,10 +145,6 @@
     <t>Ing Rita Paucar</t>
   </si>
   <si>
-    <t>Ingresar las facturas en el ordenador
-Se tiene que presentar cada 3 meses al sri, y ponen con % dentro del programa, y se tiene que clasificar las facutras, por tipo, como compras o ventas, ademas ordeanarlas por fechas. Tambien se clasifica por fechas, Trabaja con excel. Y eso lo envian a una base de datos.</t>
-  </si>
-  <si>
     <t>_________________________________________________________</t>
   </si>
   <si>
@@ -302,6 +298,13 @@
       </rPr>
       <t>Del 22 al 26 de junio del 2015</t>
     </r>
+  </si>
+  <si>
+    <t>Lunes: - Recibí, examine y clasifique  el registro de las facturas de los diferentes clientes a quienes se les lleva todo el proceso de contabilidad. - Atender el teléfono y estar pendientes de los diferentes documentos que llevan cada día los clientes a quienes se les lleva la contabilidad.
+Martes: - Transcribí  e ingrese la información operando un computador
+Miercoles: - Recibí, examine y clasifique  los registro de las facturas de los diferentes clientes a quienes se les lleva todo el proceso  de contabilidad.
+Jueves:- Transcribí  e ingrese la información operando un computador
+Viernes:- Transcribí  e ingrese la información operando un computador</t>
   </si>
 </sst>
 </file>
@@ -664,6 +667,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -673,6 +691,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -682,95 +724,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1383,52 +1386,52 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -1625,7 +1628,7 @@
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="35"/>
+    <col min="9" max="9" width="45.42578125" customWidth="1"/>
     <col min="10" max="10" width="14.5703125" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" customWidth="1"/>
     <col min="12" max="12" width="14.28515625" customWidth="1"/>
@@ -1633,174 +1636,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
       <c r="M1" s="8"/>
       <c r="N1" s="9"/>
       <c r="O1" s="9"/>
     </row>
     <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
       <c r="M2" s="10"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
     </row>
     <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
       <c r="M3" s="11"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
     </row>
     <row r="4" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
       <c r="M4" s="11"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
     </row>
     <row r="5" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
       <c r="M5" s="10"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
     </row>
     <row r="6" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
       <c r="M6" s="11"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
     </row>
     <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
     </row>
     <row r="8" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
     </row>
     <row r="9" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
     </row>
     <row r="10" spans="1:15" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
@@ -1827,7 +1830,7 @@
       <c r="H10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="49" t="s">
+      <c r="I10" s="24" t="s">
         <v>29</v>
       </c>
       <c r="J10" s="13" t="s">
@@ -1840,37 +1843,37 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="125.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="50">
+    <row r="11" spans="1:15" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25">
         <v>42181</v>
       </c>
-      <c r="B11" s="51">
+      <c r="B11" s="26">
         <v>0.33333333333333298</v>
       </c>
-      <c r="C11" s="51">
+      <c r="C11" s="26">
         <v>0.75</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="52" t="s">
+      <c r="F11" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="52" t="s">
+      <c r="G11" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="52" t="s">
+      <c r="H11" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="53"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
+      <c r="I11" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="28"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
     </row>
     <row r="12" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
@@ -1901,39 +1904,44 @@
       <c r="L13" s="9"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+    </row>
+    <row r="16" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A16" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-    </row>
-    <row r="16" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
     <mergeCell ref="A15:L15"/>
     <mergeCell ref="A16:L16"/>
     <mergeCell ref="A6:L6"/>
@@ -1942,11 +1950,6 @@
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="E9:I9"/>
     <mergeCell ref="J9:L9"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23611111111111099" right="0.196527777777778" top="0.39374999999999999" bottom="0.51180555555555496" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1960,7 +1963,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1977,177 +1980,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
     </row>
     <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
+      <c r="A4" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+    </row>
+    <row r="6" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+    </row>
+    <row r="7" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-    </row>
-    <row r="6" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-    </row>
-    <row r="7" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+    </row>
+    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+    </row>
+    <row r="9" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-    </row>
-    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-    </row>
-    <row r="9" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="56"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="59"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="48"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="45"/>
     </row>
     <row r="10" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
     </row>
     <row r="11" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="C11" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="D11" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="E11" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="F11" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="G11" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="H11" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" spans="1:12" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25">
+        <v>42181</v>
+      </c>
+      <c r="B12" s="26">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="19"/>
-    </row>
-    <row r="12" spans="1:12" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50">
-        <v>42181</v>
-      </c>
-      <c r="B12" s="51">
-        <v>0.64583333333333304</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="52" t="s">
+      <c r="E12" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
+      <c r="F12" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
@@ -2170,41 +2173,47 @@
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
+      <c r="A15" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
     </row>
     <row r="16" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
+      <c r="A17" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A4:H4"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A17:H17"/>
@@ -2214,12 +2223,6 @@
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A4:H4"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.47222222222222199" right="0.196527777777778" top="0.39374999999999999" bottom="0.118055555555556" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2252,153 +2255,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
     </row>
     <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
+      <c r="A4" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
+      <c r="A5" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
     </row>
     <row r="6" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
     </row>
     <row r="7" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+    </row>
+    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+    </row>
+    <row r="9" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-    </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-    </row>
-    <row r="9" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="21" t="s">
+      <c r="G9" s="22"/>
+      <c r="H9" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
     </row>
     <row r="11" spans="1:10" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>23</v>
@@ -2407,19 +2410,19 @@
         <v>24</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="H11" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="I11" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>65</v>
       </c>
       <c r="J11" s="16" t="s">
         <v>32</v>
@@ -2558,35 +2561,40 @@
       <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
+      <c r="A23" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
     </row>
     <row r="24" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A24" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
+      <c r="A24" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:J5"/>
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A23:J23"/>
     <mergeCell ref="A24:J24"/>
@@ -2595,11 +2603,6 @@
     <mergeCell ref="A8:J8"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="H9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:J5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="7.8472222222222193E-2" right="0" top="0.39374999999999999" bottom="0.118055555555556" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2631,125 +2634,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
       <c r="J1" s="8"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
       <c r="J2" s="11"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
       <c r="J3" s="10"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
+      <c r="A4" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
       <c r="J4" s="11"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
+      <c r="A5" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
       <c r="J5" s="11"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
+      <c r="A6" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
     </row>
     <row r="9" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
@@ -2762,22 +2765,22 @@
         <v>23</v>
       </c>
       <c r="D9" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="F9" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="G9" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="14" t="s">
         <v>72</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -2880,43 +2883,43 @@
       <c r="I18" s="9"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
+      <c r="A20" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
     </row>
     <row r="21" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
     <mergeCell ref="A6:I6"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A20:I20"/>
     <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23611111111111099" right="0.196527777777778" top="0.39374999999999999" bottom="0.51180555555555496" header="0.51180555555555496" footer="0.51180555555555496"/>
